--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KVTran/Documents/CIS41B/Module2_Numpy_Visualization/Assignment2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="293" yWindow="593" windowWidth="21045" windowHeight="9420"/>
+    <workbookView xWindow="300" yWindow="600" windowWidth="28500" windowHeight="16280"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,8 +38,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -68,7 +81,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -358,19 +376,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="4.59765625" customWidth="1"/>
+    <col min="1" max="35" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -691,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2296,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2617,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2831,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3152,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3259,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3366,7 +3384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3580,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -3901,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4008,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -4115,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -4650,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -4757,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -4971,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -5185,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -5292,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -5399,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -5506,7 +5524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +5631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +5738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -5827,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -5934,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -6041,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -6148,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -6255,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -6362,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -6469,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -6576,7 +6594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -6683,7 +6701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -6897,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -7004,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -7111,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -7218,7 +7236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
